--- a/data/Subset 1/Video Mosaic Grade 6 2 variables 8.xlsx
+++ b/data/Subset 1/Video Mosaic Grade 6 2 variables 8.xlsx
@@ -461,7 +461,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Student Tag</t>
+          <t>S Tag</t>
         </is>
       </c>
     </row>
@@ -568,7 +568,7 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -591,7 +591,7 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -614,7 +614,7 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -639,7 +639,7 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -650,7 +650,7 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2 - relating to another student</t>
+          <t>2 - relating to another S</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2 - relating to another student</t>
+          <t>2 - relating to another S</t>
         </is>
       </c>
     </row>
@@ -710,7 +710,7 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -733,7 +733,7 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -779,7 +779,7 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -802,7 +802,7 @@
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -825,7 +825,7 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -848,7 +848,7 @@
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -871,7 +871,7 @@
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -894,7 +894,7 @@
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -917,7 +917,7 @@
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -940,7 +940,7 @@
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1055,7 +1055,7 @@
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1078,7 +1078,7 @@
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1124,7 +1124,7 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1147,7 +1147,7 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1193,7 +1193,7 @@
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1239,7 +1239,7 @@
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1289,7 +1289,7 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1335,7 +1335,7 @@
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1358,7 +1358,7 @@
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1381,7 +1381,7 @@
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1404,7 +1404,7 @@
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1450,7 +1450,7 @@
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
